--- a/data/calc-solar.xlsx
+++ b/data/calc-solar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas-Thinkpad\Desktop\SolarBeam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas-Thinkpad\Documents\workspace\websites\solarbeam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,8 @@
   <sheets>
     <sheet name="calc-solar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,420 +854,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L64" sqref="A34:L64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F1">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G1">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H1">
+        <v>8.125</v>
+      </c>
+      <c r="I1">
+        <v>5.25</v>
+      </c>
       <c r="J1">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K1">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F2">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G2">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H2">
+        <v>8.125</v>
+      </c>
+      <c r="I2">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J2">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K2">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F3">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G3">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H3">
+        <v>8.125</v>
+      </c>
+      <c r="I3">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J3">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K3">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F4">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G4">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H4">
+        <v>8.125</v>
+      </c>
+      <c r="I4">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J4">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K4">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F5">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G5">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H5">
+        <v>8.125</v>
+      </c>
+      <c r="I5">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J5">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K5">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F6">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G6">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H6">
+        <v>8.125</v>
+      </c>
+      <c r="I6">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J6">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K6">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F7">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G7">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H7">
+        <v>8.125</v>
+      </c>
+      <c r="I7">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J7">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K7">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10.001250000000006</v>
+      </c>
+      <c r="F8">
+        <v>9.25</v>
+      </c>
+      <c r="G8">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H8">
+        <v>8.125</v>
+      </c>
+      <c r="I8">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J8">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K8">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>9.25</v>
+      </c>
+      <c r="G9">
+        <v>8.9999999999999876</v>
+      </c>
+      <c r="H9">
+        <v>8.125</v>
+      </c>
+      <c r="I9">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J9">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K9">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>9.25</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="K1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L1">
-        <v>2.04</v>
-      </c>
-      <c r="M1">
-        <v>8.52</v>
-      </c>
-    </row>
-    <row r="2" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J2">
-        <v>7.87</v>
-      </c>
-      <c r="K2">
-        <v>10.73</v>
-      </c>
-      <c r="L2">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="3" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J3">
-        <v>3.1</v>
-      </c>
-      <c r="K3">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="L3">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="4" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J4">
-        <v>7.43</v>
-      </c>
-      <c r="K4">
+      <c r="H10">
+        <v>8.125</v>
+      </c>
+      <c r="I10">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="J10">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K10">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>9.25</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>8.125</v>
+      </c>
+      <c r="I11">
+        <v>9.25</v>
+      </c>
+      <c r="J11">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K11">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9.25</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>8.125</v>
+      </c>
+      <c r="I12">
+        <v>9.25</v>
+      </c>
+      <c r="J12">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K12">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9.25</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>8.125</v>
+      </c>
+      <c r="I13">
+        <v>9.25</v>
+      </c>
+      <c r="J13">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K13">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>9.25</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>8.125</v>
+      </c>
+      <c r="I14">
+        <v>9.25</v>
+      </c>
+      <c r="J14">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K14">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>9.25</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>8.125</v>
+      </c>
+      <c r="I15">
+        <v>9.25</v>
+      </c>
+      <c r="J15">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K15">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>9.25</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>8.125</v>
+      </c>
+      <c r="I16">
+        <v>9.25</v>
+      </c>
+      <c r="J16">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K16">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>9.25</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>8.125</v>
+      </c>
+      <c r="I17">
+        <v>9.25</v>
+      </c>
+      <c r="J17">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K17">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>7.75</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>9.25</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>8.125</v>
+      </c>
+      <c r="I18">
+        <v>9.25</v>
+      </c>
+      <c r="J18">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K18">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>7.75</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>9.25</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>8.125</v>
+      </c>
+      <c r="I19">
+        <v>9.25</v>
+      </c>
+      <c r="J19">
+        <v>9.3157894736842106</v>
+      </c>
+      <c r="K19">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>7.75</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>8.125</v>
+      </c>
+      <c r="I20">
+        <v>9.25</v>
+      </c>
+      <c r="J20">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>7.75</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>8.125</v>
+      </c>
+      <c r="I21">
+        <v>9.25</v>
+      </c>
+      <c r="J21">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>8.125</v>
+      </c>
+      <c r="I22">
+        <v>9.25</v>
+      </c>
+      <c r="J22">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>8.125</v>
+      </c>
+      <c r="I23">
+        <v>9.25</v>
+      </c>
+      <c r="J23">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>8.57</v>
+      </c>
+      <c r="E24">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F24">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>8.125</v>
+      </c>
+      <c r="I24">
+        <v>9.25</v>
+      </c>
+      <c r="J24">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>8.57</v>
+      </c>
+      <c r="E25">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F25">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G25">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H25">
+        <v>5.25</v>
+      </c>
+      <c r="I25">
+        <v>9.25</v>
+      </c>
+      <c r="J25">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>8.57</v>
+      </c>
+      <c r="E26">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F26">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G26">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H26">
+        <v>5.25</v>
+      </c>
+      <c r="I26">
+        <v>9.25</v>
+      </c>
+      <c r="J26">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>8.57</v>
+      </c>
+      <c r="E27">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F27">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G27">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H27">
+        <v>5.25</v>
+      </c>
+      <c r="I27">
+        <v>9.25</v>
+      </c>
+      <c r="J27">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>8.57</v>
+      </c>
+      <c r="E28">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F28">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G28">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H28">
+        <v>5.25</v>
+      </c>
+      <c r="I28">
+        <v>9.25</v>
+      </c>
+      <c r="J28">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>8.57</v>
+      </c>
+      <c r="E29">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="F29">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G29">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H29">
+        <v>5.25</v>
+      </c>
+      <c r="I29">
+        <v>9.25</v>
+      </c>
+      <c r="J29">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>8.57</v>
+      </c>
+      <c r="E30">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="F30">
+        <v>8.2727272727272734</v>
+      </c>
+      <c r="G30">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H30">
+        <v>5.25</v>
+      </c>
+      <c r="I30">
+        <v>9.25</v>
+      </c>
+      <c r="J30">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G31">
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H31">
+        <v>5.25</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="5" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J5">
-        <v>20.96</v>
-      </c>
-      <c r="K5">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="L5">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="6" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J6">
-        <v>13.5</v>
-      </c>
-      <c r="K6">
-        <v>2.52</v>
-      </c>
-      <c r="L6">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J7">
-        <v>14.22</v>
-      </c>
-      <c r="K7">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="L7">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="8" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J8">
-        <v>17.3</v>
-      </c>
-      <c r="K8">
-        <v>4.41</v>
-      </c>
-      <c r="L8">
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="9" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>9.19</v>
-      </c>
-      <c r="L9">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="10" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J10">
-        <v>5.92</v>
-      </c>
-      <c r="K10">
-        <v>13.46</v>
-      </c>
-      <c r="L10">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J11">
-        <v>6.9</v>
-      </c>
-      <c r="K11">
-        <v>10.44</v>
-      </c>
-      <c r="L11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J12">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>2.4</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J13">
-        <v>15.63</v>
-      </c>
-      <c r="K13">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="J14">
-        <v>9.5</v>
-      </c>
-      <c r="K14">
-        <v>3.44</v>
-      </c>
-      <c r="L14">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="15" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I15">
-        <f t="shared" ref="I15:I29" si="0">93.7016451613627/15</f>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>14.56</v>
-      </c>
-      <c r="L15">
-        <v>8.2100000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K16">
-        <v>1.65</v>
-      </c>
-      <c r="L16">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J17">
-        <v>16.3</v>
-      </c>
-      <c r="K17">
-        <v>12.31</v>
-      </c>
-      <c r="L17">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J18">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="K18">
-        <v>4.22</v>
-      </c>
-      <c r="L18">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J19">
-        <v>17.7</v>
-      </c>
-      <c r="K19">
-        <v>2.1</v>
-      </c>
-      <c r="L19">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J20">
-        <v>18.5</v>
-      </c>
-      <c r="K20">
-        <v>6.35</v>
-      </c>
-      <c r="L20">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>0.48</v>
-      </c>
-      <c r="L21">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J22">
-        <v>1.64</v>
-      </c>
-      <c r="K22">
-        <v>3.24</v>
-      </c>
-      <c r="L22">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J23">
-        <v>6.86</v>
-      </c>
-      <c r="K23">
-        <v>6.77</v>
-      </c>
-      <c r="L23">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L24">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J25">
-        <v>13.9</v>
-      </c>
-      <c r="K25">
-        <v>5.67</v>
-      </c>
-      <c r="L25">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J26">
-        <v>6.4</v>
-      </c>
-      <c r="K26">
-        <v>6.44</v>
-      </c>
-      <c r="L26">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J27">
-        <v>3.2</v>
-      </c>
-      <c r="K27">
-        <v>13.61</v>
-      </c>
-      <c r="L27">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J29">
-        <v>1.4</v>
-      </c>
-      <c r="K29">
-        <v>6.95</v>
-      </c>
-      <c r="L29">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I30">
-        <f>93.7016451613627/15</f>
-        <v>6.246776344090847</v>
-      </c>
-      <c r="J30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K30">
-        <v>9.1</v>
-      </c>
-      <c r="L30">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="J31">
-        <v>2.87</v>
-      </c>
-      <c r="L31">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1282,40 +1634,46 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <f t="shared" ref="D34" si="0">D35-D2</f>
+        <v>10.003000000002487</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <f t="shared" ref="E34" si="1">E35-E2</f>
+        <v>282.99425000000247</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <f t="shared" ref="F34" si="2">F35-F2</f>
+        <v>552.6696666666694</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <f t="shared" ref="G34" si="3">G35-G2</f>
+        <v>805.00300000000266</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <f t="shared" ref="H34:J63" si="4">H35-H2</f>
+        <v>1062.1280000000024</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <f t="shared" ref="I34:I51" si="5">I35-I2</f>
+        <v>1291.0030000000024</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J63" si="1">J35-J2</f>
-        <v>93.701645161362677</v>
+        <f t="shared" si="4"/>
+        <v>1564.318789473687</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K61" si="2">K35-K2</f>
-        <v>385.70164516136265</v>
+        <f t="shared" ref="K34:K61" si="6">K35-K2</f>
+        <v>1833.2660000000014</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L62" si="3">L35-L2</f>
-        <v>565.56164516136278</v>
+        <f t="shared" ref="L34:L62" si="7">L35-L2</f>
+        <v>1928</v>
       </c>
       <c r="M34">
-        <v>702.0216451613627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1326,37 +1684,43 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <f t="shared" ref="D35" si="8">D36-D3</f>
+        <v>20.003000000002487</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <f t="shared" ref="E35" si="9">E36-E3</f>
+        <v>292.99550000000249</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <f t="shared" ref="F35" si="10">F36-F3</f>
+        <v>559.55855555555831</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <f t="shared" ref="G35" si="11">G36-G3</f>
+        <v>814.00300000000266</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1070.2530000000024</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1299.7807777777803</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>101.57164516136268</v>
+        <f t="shared" si="4"/>
+        <v>1573.6345789473712</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>396.43164516136267</v>
+        <f t="shared" si="6"/>
+        <v>1838.5290000000014</v>
       </c>
       <c r="L35">
-        <f t="shared" si="3"/>
-        <v>572.07164516136277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1367,37 +1731,43 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <f t="shared" ref="D36" si="12">D37-D4</f>
+        <v>30.003000000002487</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <f t="shared" ref="E36" si="13">E37-E4</f>
+        <v>302.99675000000252</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <f t="shared" ref="F36" si="14">F37-F4</f>
+        <v>566.44744444444723</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <f t="shared" ref="G36" si="15">G37-G4</f>
+        <v>823.00300000000266</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1078.3780000000024</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1308.5585555555581</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>104.67164516136268</v>
+        <f t="shared" si="4"/>
+        <v>1582.9503684210554</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>404.46164516136264</v>
+        <f t="shared" si="6"/>
+        <v>1843.7920000000013</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
-        <v>584.72164516136274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1408,37 +1778,43 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <f t="shared" ref="D37" si="16">D38-D5</f>
+        <v>40.003000000002487</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <f t="shared" ref="E37" si="17">E38-E5</f>
+        <v>312.99800000000255</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <f t="shared" ref="F37" si="18">F38-F5</f>
+        <v>573.33633333333614</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f t="shared" ref="G37" si="19">G38-G5</f>
+        <v>832.00300000000266</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1086.5030000000024</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1317.3363333333359</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>112.10164516136268</v>
+        <f t="shared" si="4"/>
+        <v>1592.2661578947395</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>406.46164516136264</v>
+        <f t="shared" si="6"/>
+        <v>1849.0550000000012</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
-        <v>590.29164516136279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1449,41 +1825,43 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <f t="shared" ref="D38" si="20">D39-D6</f>
+        <v>50.003000000002487</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <f t="shared" ref="E38" si="21">E39-E6</f>
+        <v>322.99925000000258</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <f t="shared" ref="F38" si="22">F39-F6</f>
+        <v>580.22522222222506</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <f t="shared" ref="G38" si="23">G39-G6</f>
+        <v>841.00300000000266</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1094.6280000000024</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1326.1141111111137</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>133.06164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1601.5819473684237</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>415.08164516136264</v>
+        <f t="shared" si="6"/>
+        <v>1854.3180000000011</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
-        <v>593.30164516136279</v>
-      </c>
-      <c r="O38">
-        <f>93.7016451613627/15</f>
-        <v>6.246776344090847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1494,37 +1872,43 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <f t="shared" ref="D39" si="24">D40-D7</f>
+        <v>60.003000000002487</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <f t="shared" ref="E39" si="25">E40-E7</f>
+        <v>333.0005000000026</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <f t="shared" ref="F39" si="26">F40-F7</f>
+        <v>587.11411111111397</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <f t="shared" ref="G39" si="27">G40-G7</f>
+        <v>850.00300000000266</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1102.7530000000024</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1334.8918888888916</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>146.56164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1610.8977368421079</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>417.60164516136263</v>
+        <f t="shared" si="6"/>
+        <v>1859.581000000001</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
-        <v>596.90164516136281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1535,37 +1919,43 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <f t="shared" ref="D40" si="28">D41-D8</f>
+        <v>70.003000000002487</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <f t="shared" ref="E40" si="29">E41-E8</f>
+        <v>343.00175000000263</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <f t="shared" ref="F40" si="30">F41-F8</f>
+        <v>594.00300000000288</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <f t="shared" ref="G40" si="31">G41-G8</f>
+        <v>859.00300000000266</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1110.8780000000024</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1343.6696666666694</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>160.78164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1620.213526315792</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>420.09164516136264</v>
+        <f t="shared" si="6"/>
+        <v>1864.844000000001</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
-        <v>598.11164516136284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1576,37 +1966,43 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <f t="shared" ref="D41" si="32">D42-D9</f>
+        <v>80.003000000002487</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <f t="shared" ref="E41" si="33">E42-E9</f>
+        <v>353.00300000000266</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <f t="shared" ref="F41" si="34">F42-F9</f>
+        <v>603.25300000000288</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <f t="shared" ref="G41" si="35">G42-G9</f>
+        <v>868.00300000000266</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1119.0030000000024</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1352.4474444444472</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>178.0816451613627</v>
+        <f t="shared" si="4"/>
+        <v>1629.5293157894762</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>424.50164516136266</v>
+        <f t="shared" si="6"/>
+        <v>1870.1070000000009</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
-        <v>609.50164516136283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1617,37 +2013,43 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <f t="shared" ref="D42" si="36">D43-D10</f>
+        <v>90.003000000002487</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <f t="shared" ref="E42" si="37">E43-E10</f>
+        <v>358.00300000000266</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <f t="shared" ref="F42" si="38">F43-F10</f>
+        <v>612.50300000000288</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <f t="shared" ref="G42" si="39">G43-G10</f>
+        <v>877.00300000000266</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1127.1280000000024</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1361.2252222222251</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>185.0816451613627</v>
+        <f t="shared" si="4"/>
+        <v>1638.8451052631603</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
-        <v>433.69164516136266</v>
+        <f t="shared" si="6"/>
+        <v>1875.3700000000008</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
-        <v>621.39164516136282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1658,37 +2060,43 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <f t="shared" ref="D43" si="40">D44-D11</f>
+        <v>100.00300000000249</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <f t="shared" ref="E43" si="41">E44-E11</f>
+        <v>365.00300000000266</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <f t="shared" ref="F43" si="42">F44-F11</f>
+        <v>621.75300000000288</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <f t="shared" ref="G43" si="43">G44-G11</f>
+        <v>885.00300000000266</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1135.2530000000024</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1370.0030000000029</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>191.00164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1648.1608947368445</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
-        <v>447.15164516136264</v>
+        <f t="shared" si="6"/>
+        <v>1880.6330000000007</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
-        <v>621.84164516136286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1699,37 +2107,43 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <f t="shared" ref="D44" si="44">D45-D12</f>
+        <v>110.00300000000249</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <f t="shared" ref="E44" si="45">E45-E12</f>
+        <v>372.00300000000266</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <f t="shared" ref="F44" si="46">F45-F12</f>
+        <v>631.00300000000288</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <f t="shared" ref="G44" si="47">G45-G12</f>
+        <v>893.00300000000266</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1143.3780000000024</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1379.2530000000029</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>197.90164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1657.4766842105287</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
-        <v>457.59164516136264</v>
+        <f t="shared" si="6"/>
+        <v>1885.8960000000006</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
-        <v>621.89164516136282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1740,37 +2154,43 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <f t="shared" ref="D45" si="48">D46-D13</f>
+        <v>120.00300000000249</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <f t="shared" ref="E45" si="49">E46-E13</f>
+        <v>380.00300000000266</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <f t="shared" ref="F45" si="50">F46-F13</f>
+        <v>640.25300000000288</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <f t="shared" ref="G45" si="51">G46-G13</f>
+        <v>901.00300000000266</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1151.5030000000024</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1388.5030000000029</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>214.90164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1666.7924736842128</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>459.99164516136261</v>
+        <f t="shared" si="6"/>
+        <v>1891.1590000000006</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
-        <v>621.89164516136282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1781,37 +2201,43 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <f t="shared" ref="D46" si="52">D47-D14</f>
+        <v>130.00300000000249</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <f t="shared" ref="E46" si="53">E47-E14</f>
+        <v>388.00300000000266</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <f t="shared" ref="F46" si="54">F47-F14</f>
+        <v>649.50300000000288</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <f t="shared" ref="G46" si="55">G47-G14</f>
+        <v>909.00300000000266</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1159.6280000000024</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1397.7530000000029</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>230.53164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1676.108263157897</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>462.06164516136261</v>
+        <f t="shared" si="6"/>
+        <v>1896.4220000000005</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
-        <v>621.89164516136282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1822,37 +2248,43 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <f t="shared" ref="D47" si="56">D48-D15</f>
+        <v>139.00300000000249</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <f t="shared" ref="E47" si="57">E48-E15</f>
+        <v>396.00300000000266</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <f t="shared" ref="F47" si="58">F48-F15</f>
+        <v>658.75300000000288</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <f t="shared" ref="G47" si="59">G48-G15</f>
+        <v>917.00300000000266</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1167.7530000000024</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1407.0030000000029</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>240.03164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1685.4240526315812</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
-        <v>465.5016451613626</v>
+        <f t="shared" si="6"/>
+        <v>1901.6850000000004</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
-        <v>623.57164516136277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1863,34 +2295,40 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <f t="shared" ref="D48" si="60">D49-D16</f>
+        <v>148.00300000000249</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <f t="shared" ref="E48" si="61">E49-E16</f>
+        <v>404.00300000000266</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <f t="shared" ref="F48" si="62">F49-F16</f>
+        <v>668.00300000000288</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <f t="shared" ref="G48" si="63">G49-G16</f>
+        <v>925.00300000000266</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1175.8780000000024</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1416.2530000000029</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>250.03164516136269</v>
+        <f t="shared" si="4"/>
+        <v>1694.7398421052653</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
-        <v>480.06164516136261</v>
+        <f t="shared" si="6"/>
+        <v>1906.9480000000003</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
-        <v>631.7816451613628</v>
+        <f t="shared" si="7"/>
+        <v>1928</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -1904,34 +2342,40 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <f t="shared" ref="D49" si="64">D50-D17</f>
+        <v>157.00300000000249</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <f t="shared" ref="E49" si="65">E50-E17</f>
+        <v>413.00300000000266</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <f t="shared" ref="F49" si="66">F50-F17</f>
+        <v>677.25300000000288</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <f t="shared" ref="G49" si="67">G50-G17</f>
+        <v>933.00300000000266</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1184.0030000000024</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1425.5030000000029</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>252.3316451613627</v>
+        <f t="shared" si="4"/>
+        <v>1704.0556315789495</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
-        <v>481.71164516136258</v>
+        <f t="shared" si="6"/>
+        <v>1912.2110000000002</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
-        <v>633.43164516136278</v>
+        <f t="shared" si="7"/>
+        <v>1928</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -1945,489 +2389,486 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <f t="shared" ref="D50" si="68">D51-D18</f>
+        <v>166.00300000000249</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <f t="shared" ref="E50" si="69">E51-E18</f>
+        <v>425.00300000000266</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <f t="shared" ref="F50" si="70">F51-F18</f>
+        <v>686.50300000000288</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <f t="shared" ref="G50" si="71">G51-G18</f>
+        <v>941.00300000000266</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1192.1280000000024</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1434.7530000000029</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
-        <v>268.63164516136271</v>
+        <f t="shared" si="4"/>
+        <v>1713.3714210526337</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
-        <v>494.02164516136258</v>
+        <f t="shared" si="6"/>
+        <v>1917.4740000000002</v>
       </c>
       <c r="L50">
-        <f t="shared" si="3"/>
-        <v>634.69164516136277</v>
+        <f t="shared" si="7"/>
+        <v>1928</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" ref="A34:A63" si="4">A52-A19</f>
+        <f t="shared" ref="A51:A63" si="72">A52-A19</f>
         <v>0</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B34:B62" si="5">B52-B19</f>
+        <f t="shared" ref="B51:B59" si="73">B52-B19</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C34:C63" si="6">C52-C19</f>
         <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D34:D62" si="7">D52-D19</f>
-        <v>0</v>
+        <f t="shared" ref="C51:D63" si="74">D52-D19</f>
+        <v>173.75300000000249</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E34:E63" si="8">E52-E19</f>
-        <v>0</v>
+        <f t="shared" ref="D51:E62" si="75">E52-E19</f>
+        <v>437.00300000000266</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F34:F61" si="9">F52-F19</f>
-        <v>0</v>
+        <f t="shared" ref="E51:F63" si="76">F52-F19</f>
+        <v>695.75300000000288</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G34:G62" si="10">G52-G19</f>
-        <v>0</v>
+        <f t="shared" ref="F51:G61" si="77">G52-G19</f>
+        <v>949.00300000000266</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H34:H63" si="11">H52-H19</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1200.2530000000024</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I34:I62" si="12">I52-I19</f>
-        <v>10.740329032272513</v>
+        <f t="shared" si="5"/>
+        <v>1444.0030000000029</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
-        <v>287.73164516136274</v>
+        <f t="shared" si="4"/>
+        <v>1722.6872105263178</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
-        <v>498.24164516136261</v>
+        <f t="shared" si="6"/>
+        <v>1922.7370000000001</v>
       </c>
       <c r="L51">
-        <f t="shared" si="3"/>
-        <v>634.85164516136274</v>
+        <f t="shared" si="7"/>
+        <v>1928</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="74"/>
+        <v>181.50300000000249</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="75"/>
+        <v>445.00300000000266</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="77"/>
+        <v>705.00300000000288</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="77"/>
+        <v>957.00300000000266</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>1208.3780000000024</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I51:I62" si="78">I53-I20</f>
+        <v>1453.2530000000029</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>1732.003000000002</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D52">
+        <v>1928</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="12"/>
-        <v>16.98710537636336</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="1"/>
-        <v>305.43164516136272</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="2"/>
-        <v>500.34164516136264</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>635.81164516136278</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="74"/>
+        <v>189.25300000000249</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="75"/>
+        <v>453.00300000000266</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="77"/>
+        <v>713.27572727273014</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="77"/>
+        <v>965.00300000000266</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>1216.5030000000024</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="78"/>
+        <v>1462.5030000000029</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>1740.5484545454565</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D53">
+        <v>1928</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="12"/>
-        <v>23.233881720454207</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="1"/>
-        <v>323.93164516136272</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="2"/>
-        <v>506.69164516136266</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
-        <v>636.46164516136275</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="74"/>
+        <v>197.00300000000249</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="75"/>
+        <v>461.00300000000266</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="77"/>
+        <v>721.54845454545739</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="77"/>
+        <v>973.00300000000266</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>1224.6280000000024</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="78"/>
+        <v>1471.7530000000029</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>1749.093909090911</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D54">
+        <v>1928</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="12"/>
-        <v>29.480658064545054</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>332.93164516136272</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
-        <v>507.17164516136268</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
-        <v>636.90164516136281</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="74"/>
+        <v>205.00300000000249</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="75"/>
+        <v>469.00300000000266</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="77"/>
+        <v>729.82118181818464</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="77"/>
+        <v>981.00300000000266</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>1232.7530000000024</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="78"/>
+        <v>1481.0030000000029</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>1757.6393636363655</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D55">
+        <v>1928</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="12"/>
-        <v>35.727434408635901</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>334.57164516136271</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="2"/>
-        <v>510.41164516136269</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>638.22164516136286</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="75"/>
+        <v>213.00300000000249</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="75"/>
+        <v>477.00300000000266</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="77"/>
+        <v>738.09390909091189</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="77"/>
+        <v>989.00300000000266</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>1240.8780000000024</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="78"/>
+        <v>1490.2530000000029</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>1766.18481818182</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D56">
+        <v>1928</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="12"/>
-        <v>41.974210752726748</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="1"/>
-        <v>341.43164516136272</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="2"/>
-        <v>517.18164516136267</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="3"/>
-        <v>643.94164516136289</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="75"/>
+        <v>221.57300000000248</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="75"/>
+        <v>486.16966666666934</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="77"/>
+        <v>746.36663636363915</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="77"/>
+        <v>997.00300000000266</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>1249.0030000000024</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="78"/>
+        <v>1499.5030000000029</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>1774.7302727272745</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D57">
+        <v>1928</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="12"/>
-        <v>48.220987096817595</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
-        <v>345.43164516136272</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="2"/>
-        <v>517.75164516136272</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="3"/>
-        <v>648.07164516136288</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="75"/>
+        <v>230.14300000000247</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="75"/>
+        <v>495.33633333333603</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="77"/>
+        <v>754.6393636363664</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="77"/>
+        <v>1005.1458571428598</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>1254.2530000000024</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="78"/>
+        <v>1508.7530000000029</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>1783.275727272729</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D58">
+        <v>1928</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="12"/>
-        <v>54.467763440908442</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>359.3316451613627</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="2"/>
-        <v>523.42164516136268</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="3"/>
-        <v>654.47164516136286</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="75"/>
+        <v>238.71300000000247</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="75"/>
+        <v>504.50300000000271</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="77"/>
+        <v>762.91209090909365</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="77"/>
+        <v>1013.2887142857169</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>1259.5030000000024</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="78"/>
+        <v>1518.0030000000029</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>1791.8211818181835</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D59">
+        <v>1928</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="12"/>
-        <v>60.714539784999289</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>365.73164516136268</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="2"/>
-        <v>529.86164516136273</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="3"/>
-        <v>660.87164516136284</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B60">
@@ -2435,49 +2876,48 @@
         <v>0</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="75"/>
+        <v>247.28300000000246</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="76"/>
+        <v>513.6696666666694</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="77"/>
+        <v>771.1848181818209</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="77"/>
+        <v>1021.431571428574</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>1264.7530000000024</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="78"/>
+        <v>1527.2530000000029</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>1800.366636363638</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D60">
+        <v>1928</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="12"/>
-        <v>66.961316129090136</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>368.93164516136267</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="2"/>
-        <v>543.47164516136274</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="3"/>
-        <v>667.27164516136281</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B61">
@@ -2485,169 +2925,165 @@
         <v>0</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="75"/>
+        <v>255.85300000000245</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="76"/>
+        <v>522.83633333333603</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="77"/>
+        <v>779.45754545454815</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="77"/>
+        <v>1029.5744285714311</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>1270.0030000000024</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="78"/>
+        <v>1536.5030000000029</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>1808.9120909090925</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D61">
+        <v>1928</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="12"/>
-        <v>73.208092473180983</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="1"/>
-        <v>370.93164516136267</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="2"/>
-        <v>547.47164516136274</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="3"/>
-        <v>673.67164516136279</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="75"/>
+        <v>264.42300000000245</v>
       </c>
       <c r="E62">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="76"/>
+        <v>532.00300000000266</v>
       </c>
       <c r="F62">
         <f>F63-F30</f>
-        <v>0</v>
+        <v>787.73027272727541</v>
       </c>
       <c r="G62">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="G62" si="79">G63-G30</f>
+        <v>1037.7172857142882</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1275.2530000000024</v>
       </c>
       <c r="I62">
-        <f t="shared" si="12"/>
-        <v>79.45486881727183</v>
+        <f t="shared" si="78"/>
+        <v>1545.7530000000029</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>372.33164516136264</v>
+        <f t="shared" si="4"/>
+        <v>1817.457545454547</v>
       </c>
       <c r="K62">
         <f>K63-K30</f>
-        <v>554.42164516136279</v>
+        <v>1928</v>
       </c>
       <c r="L62">
-        <f t="shared" si="3"/>
-        <v>680.07164516136277</v>
+        <f t="shared" si="7"/>
+        <v>1928</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="C63">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:E63" si="13">E34-E1</f>
-        <v>0</v>
+        <f t="shared" ref="D63" si="80">E34-E1</f>
+        <v>272.99300000000244</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="76"/>
+        <v>538.89188888889157</v>
       </c>
       <c r="F63">
         <f>G34-G1</f>
-        <v>0</v>
+        <v>796.00300000000266</v>
       </c>
       <c r="G63">
-        <f>G64-G31</f>
-        <v>0</v>
+        <f t="shared" ref="G63" si="81">G64-G31</f>
+        <v>1045.8601428571453</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1280.5030000000024</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:J63" si="14">J34-J1</f>
-        <v>85.701645161362677</v>
+        <f t="shared" ref="I63" si="82">J34-J1</f>
+        <v>1555.0030000000029</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>374.53164516136263</v>
+        <f t="shared" si="4"/>
+        <v>1826.0030000000015</v>
       </c>
       <c r="K63">
         <f>L34-L1</f>
-        <v>563.52164516136281</v>
+        <v>1928</v>
       </c>
       <c r="L63">
         <f>L64-L31</f>
-        <v>686.47164516136274</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" ref="A64:E64" si="15">B34-B1</f>
+        <f t="shared" ref="A64" si="83">B34-B1</f>
         <v>0</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:E64" si="16">D34-D1</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64" si="17">F34-F1</f>
-        <v>0</v>
+        <f t="shared" ref="E64" si="84">F34-F1</f>
+        <v>545.78077777778049</v>
       </c>
       <c r="G64">
-        <f>H34-H1</f>
-        <v>0</v>
+        <f t="shared" ref="G64:J64" si="85">H34-H1</f>
+        <v>1054.0030000000024</v>
       </c>
       <c r="H64">
-        <f t="shared" ref="H64:J64" si="18">I34-I1</f>
-        <v>0</v>
+        <f t="shared" si="85"/>
+        <v>1285.7530000000024</v>
       </c>
       <c r="J64">
-        <f t="shared" ref="J64" si="19">K34-K1</f>
-        <v>377.40164516136264</v>
+        <f t="shared" si="85"/>
+        <v>1828.0030000000015</v>
       </c>
       <c r="L64">
         <f>M34-M1</f>
-        <v>693.50164516136272</v>
+        <v>1928</v>
       </c>
     </row>
   </sheetData>
